--- a/Assignment 1.1.xlsx
+++ b/Assignment 1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sampath\DS &amp; ML\Top Mentor Course\Classes\1. 11-Apr-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5380EAB-BBDB-4FCF-8868-B2C683C2C6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF59A1E-43C8-4D40-AC0E-6381CE44185E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="66">
   <si>
     <t>Age</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>Count of Age Criteria</t>
+  </si>
+  <si>
+    <t>* 50% of men involved in some kind of physical activity when compared to 35% of women</t>
+  </si>
+  <si>
+    <t>* 25% of women has health complications when compared to 50% men who participated in the survey</t>
+  </si>
+  <si>
+    <t>* More men were involved in some kind of physical activity as they had more health complications when compared to women</t>
   </si>
 </sst>
 </file>
@@ -6210,7 +6219,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A93C5F97-326A-4556-AEE9-6ECD92FE8D9F}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A93C5F97-326A-4556-AEE9-6ECD92FE8D9F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="E4:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -6345,7 +6354,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD165896-0DE5-4F7D-AD5E-F39654BCE0EC}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD165896-0DE5-4F7D-AD5E-F39654BCE0EC}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="K4:L8" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6460,7 +6469,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6FB0EAD-2857-485D-A2B1-2F24AE6B9C18}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6FB0EAD-2857-485D-A2B1-2F24AE6B9C18}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="H4:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -6595,7 +6604,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74EA8233-9BE8-4928-A680-B5ACFE8DB2CD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74EA8233-9BE8-4928-A680-B5ACFE8DB2CD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B4:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -9589,7 +9598,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA0EFC-F1F4-46D7-A3A4-350F5F6AA9C3}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="B1:P26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:N4"/>
@@ -9981,16 +9990,22 @@
       <c r="P21" s="15"/>
     </row>
     <row r="22" spans="2:16" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C3:N4"/>
